--- a/public/api/v1/material.xlsx
+++ b/public/api/v1/material.xlsx
@@ -1,25 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="板材" sheetId="2" r:id="rId1"/>
+    <sheet name="五金" sheetId="3" r:id="rId2"/>
+    <sheet name="封边带" sheetId="4" r:id="rId3"/>
+    <sheet name="纸箱" sheetId="5" r:id="rId4"/>
+    <sheet name="气泡垫 珍珠棉" sheetId="6" r:id="rId5"/>
+    <sheet name="皮纹 软包" sheetId="7" r:id="rId6"/>
+    <sheet name="玻璃 腰线" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单/双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基材名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基材等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单位 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>封边带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纸箱</t>
@@ -39,82 +107,41 @@
   </si>
   <si>
     <t>吸塑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单/双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表面处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基材名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基材等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">单位 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五金</t>
+  </si>
+  <si>
+    <t>实木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -168,7 +194,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -242,7 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -277,7 +302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,258 +477,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -714,27 +646,230 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
